--- a/Code/Results/Cases/Case_3_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.8806315986279</v>
+        <v>0.6120544276223256</v>
       </c>
       <c r="C2">
-        <v>0.4087663019574563</v>
+        <v>0.1582178864502168</v>
       </c>
       <c r="D2">
-        <v>0.04176472501460182</v>
+        <v>0.01523005430277635</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4763845998725387</v>
+        <v>0.4835143216245967</v>
       </c>
       <c r="G2">
-        <v>0.000777198913389351</v>
+        <v>0.002383005729340188</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.787380854150285</v>
+        <v>0.8931652751493857</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.283879809273287</v>
+        <v>1.544213758709077</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.644468186473034</v>
+        <v>0.5354954224460187</v>
       </c>
       <c r="C3">
-        <v>0.3686738855934379</v>
+        <v>0.1438735245382929</v>
       </c>
       <c r="D3">
-        <v>0.03724136572437686</v>
+        <v>0.01364120990714213</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4327210433158513</v>
+        <v>0.4778559183888476</v>
       </c>
       <c r="G3">
-        <v>0.0007816944150039608</v>
+        <v>0.002385830164463341</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.371648856269246</v>
+        <v>0.7947831649405543</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.187732036822638</v>
+        <v>1.539211341963835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.499197659873147</v>
+        <v>0.4883364759589881</v>
       </c>
       <c r="C4">
-        <v>0.3439200297539173</v>
+        <v>0.1350140981047332</v>
       </c>
       <c r="D4">
-        <v>0.03445159750992133</v>
+        <v>0.01266017368185146</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4072448893934251</v>
+        <v>0.4748258946642494</v>
       </c>
       <c r="G4">
-        <v>0.000784530611784995</v>
+        <v>0.00238765575187945</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.125482490885645</v>
+        <v>0.7349081208685533</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.133055519916098</v>
+        <v>1.537604654448927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.439923681327571</v>
+        <v>0.4690823438641303</v>
       </c>
       <c r="C5">
-        <v>0.3338002347804832</v>
+        <v>0.1313911699948562</v>
       </c>
       <c r="D5">
-        <v>0.03331167043556604</v>
+        <v>0.01225905561926055</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3971708919994725</v>
+        <v>0.4737024137879118</v>
       </c>
       <c r="G5">
-        <v>0.0007857063093147054</v>
+        <v>0.002388422744542693</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.027060144770459</v>
+        <v>0.7106360203322595</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.111783644965215</v>
+        <v>1.537316707355927</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.430076503395185</v>
+        <v>0.4658830538158156</v>
       </c>
       <c r="C6">
-        <v>0.3321179462926409</v>
+        <v>0.1307888344805122</v>
       </c>
       <c r="D6">
-        <v>0.03312220181376802</v>
+        <v>0.01219237064919554</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3955159332105183</v>
+        <v>0.473522568877442</v>
       </c>
       <c r="G6">
-        <v>0.0007859027590174045</v>
+        <v>0.002388551497554459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.010821034495393</v>
+        <v>0.7066131732506733</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.108310014119098</v>
+        <v>1.53729100189156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.498398585307086</v>
+        <v>0.4880769535794229</v>
       </c>
       <c r="C7">
-        <v>0.3437836794228701</v>
+        <v>0.1349652886500508</v>
       </c>
       <c r="D7">
-        <v>0.03443623645184601</v>
+        <v>0.01265476942693056</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4071078167992539</v>
+        <v>0.4748102930174483</v>
       </c>
       <c r="G7">
-        <v>0.0007845463859123445</v>
+        <v>0.002387666002497192</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.124147949905208</v>
+        <v>0.7345802709710085</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.132764663275225</v>
+        <v>1.537599288008721</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.799252464730699</v>
+        <v>0.5856892369392881</v>
       </c>
       <c r="C8">
-        <v>0.3949722114115275</v>
+        <v>0.1532829743556761</v>
       </c>
       <c r="D8">
-        <v>0.04020767824202665</v>
+        <v>0.01468338142039727</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4610353591247147</v>
+        <v>0.4814708339673217</v>
       </c>
       <c r="G8">
-        <v>0.000778733727235456</v>
+        <v>0.002383960675176058</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.641891915941599</v>
+        <v>0.8591288566878603</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.249768969093282</v>
+        <v>1.54218396431412</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.387500532439844</v>
+        <v>0.7758446251762621</v>
       </c>
       <c r="C9">
-        <v>0.4941503754919552</v>
+        <v>0.1887751886500553</v>
       </c>
       <c r="D9">
-        <v>0.05142408837929935</v>
+        <v>0.01861644025704834</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.578740342172658</v>
+        <v>0.4980781488172781</v>
       </c>
       <c r="G9">
-        <v>0.0007678948973328698</v>
+        <v>0.002377416132534079</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.751024955410699</v>
+        <v>1.107889796336323</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.518125167259825</v>
+        <v>1.562870050734006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.819102241587473</v>
+        <v>0.9147147020558464</v>
       </c>
       <c r="C10">
-        <v>0.5660609148588378</v>
+        <v>0.2145700613854444</v>
       </c>
       <c r="D10">
-        <v>0.05959596133139655</v>
+        <v>0.02147677101582701</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6746590679651661</v>
+        <v>0.5124724733267669</v>
       </c>
       <c r="G10">
-        <v>0.0007602023996106472</v>
+        <v>0.002373042968827365</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.661637561049972</v>
+        <v>1.293851259506113</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.745813016600351</v>
+        <v>1.58530332332279</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.015372202399931</v>
+        <v>0.9776951630773851</v>
       </c>
       <c r="C11">
-        <v>0.5984874602133914</v>
+        <v>0.2262397142641532</v>
       </c>
       <c r="D11">
-        <v>0.06329528875237145</v>
+        <v>0.02277128312764631</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7209107584753838</v>
+        <v>0.5195038344906067</v>
       </c>
       <c r="G11">
-        <v>0.0007567417924234273</v>
+        <v>0.002371146959983345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.108733564093285</v>
+        <v>1.379243064672607</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.857819031085427</v>
+        <v>1.597102804373236</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.08968090914766</v>
+        <v>1.001515178961256</v>
       </c>
       <c r="C12">
-        <v>0.6107149846810671</v>
+        <v>0.2306490380301227</v>
       </c>
       <c r="D12">
-        <v>0.06469300919138732</v>
+        <v>0.0232604862612078</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7388578326088862</v>
+        <v>0.5222364374263719</v>
       </c>
       <c r="G12">
-        <v>0.0007554348019416707</v>
+        <v>0.002370442338494412</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.284161434408873</v>
+        <v>1.411701292022158</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.901624813271383</v>
+        <v>1.601802019915738</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.073678010047104</v>
+        <v>0.996386442808614</v>
       </c>
       <c r="C13">
-        <v>0.6080840813924624</v>
+        <v>0.229699850499884</v>
       </c>
       <c r="D13">
-        <v>0.06439213575488623</v>
+        <v>0.02315517277432377</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.734972370035635</v>
+        <v>0.5216448025116449</v>
       </c>
       <c r="G13">
-        <v>0.0007557161707320372</v>
+        <v>0.00237059349832902</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.246080538543239</v>
+        <v>1.404705273834793</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.892125360198918</v>
+        <v>1.600779658113822</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.021485971402399</v>
+        <v>0.9796554472461025</v>
       </c>
       <c r="C14">
-        <v>0.5994945375409486</v>
+        <v>0.2266026692857395</v>
       </c>
       <c r="D14">
-        <v>0.06341034683421753</v>
+        <v>0.02281155045417904</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7223782491477664</v>
+        <v>0.5197272421455921</v>
       </c>
       <c r="G14">
-        <v>0.000756634209968157</v>
+        <v>0.002371088723079779</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.123033834574088</v>
+        <v>1.381910929178645</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.861393928379727</v>
+        <v>1.597484772025126</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.989514675911664</v>
+        <v>0.9694033618080766</v>
       </c>
       <c r="C15">
-        <v>0.5942260772978614</v>
+        <v>0.2247042775674686</v>
       </c>
       <c r="D15">
-        <v>0.06280854448613127</v>
+        <v>0.02260094032845927</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7147221513057218</v>
+        <v>0.5185618086332937</v>
       </c>
       <c r="G15">
-        <v>0.0007571969156931228</v>
+        <v>0.002371393799736665</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.048510405005416</v>
+        <v>1.367964878409282</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.842757124990584</v>
+        <v>1.59549669448586</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.806273945973373</v>
+        <v>0.9105947691350025</v>
       </c>
       <c r="C16">
-        <v>0.5639351920609101</v>
+        <v>0.2138060855659774</v>
       </c>
       <c r="D16">
-        <v>0.05935379729594104</v>
+        <v>0.02139203387061883</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6716936723845635</v>
+        <v>0.5120227237712243</v>
       </c>
       <c r="G16">
-        <v>0.0007604291692909474</v>
+        <v>0.002373168750356581</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.633189988939478</v>
+        <v>1.2882873866522</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.738677422462189</v>
+        <v>1.584564431732758</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.693843273579432</v>
+        <v>0.8744671712182139</v>
       </c>
       <c r="C17">
-        <v>0.5452730993842749</v>
+        <v>0.2071035499609764</v>
       </c>
       <c r="D17">
-        <v>0.05722947874215834</v>
+        <v>0.02064867154293637</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6460046464393088</v>
+        <v>0.5081353355735416</v>
       </c>
       <c r="G17">
-        <v>0.0007624206265444957</v>
+        <v>0.002374281488101579</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.387688899916014</v>
+        <v>1.239617298629568</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.677105218190178</v>
+        <v>1.578267451672502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.629170371651355</v>
+        <v>0.8536695378502941</v>
       </c>
       <c r="C18">
-        <v>0.5345130607859971</v>
+        <v>0.2032423775570464</v>
       </c>
       <c r="D18">
-        <v>0.05600596623864362</v>
+        <v>0.02022048417346411</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6314715550558532</v>
+        <v>0.5059448755206688</v>
       </c>
       <c r="G18">
-        <v>0.0007635698574224553</v>
+        <v>0.002374930297764657</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.249471841059759</v>
+        <v>1.211698102470493</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.642471650437585</v>
+        <v>1.574795571378644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.60727227331887</v>
+        <v>0.846624777189561</v>
       </c>
       <c r="C19">
-        <v>0.5308656771345568</v>
+        <v>0.2019340249685797</v>
       </c>
       <c r="D19">
-        <v>0.05559143321190874</v>
+        <v>0.02007540122051665</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6265909981761268</v>
+        <v>0.5052110170570501</v>
       </c>
       <c r="G19">
-        <v>0.0007639596758892191</v>
+        <v>0.002375151485796819</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.203151142169901</v>
+        <v>1.202257718487033</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.630874501483191</v>
+        <v>1.573645758380025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.705812315556784</v>
+        <v>0.878314890231195</v>
       </c>
       <c r="C20">
-        <v>0.5472624764524312</v>
+        <v>0.207817675764403</v>
       </c>
       <c r="D20">
-        <v>0.05745579105145282</v>
+        <v>0.02072786872330568</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6487138066501501</v>
+        <v>0.5085444459828921</v>
       </c>
       <c r="G20">
-        <v>0.000762208253164819</v>
+        <v>0.002374162126027035</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.413504781757524</v>
+        <v>1.244790542441166</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.683577638056448</v>
+        <v>1.578922241513823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.036816510387837</v>
+        <v>0.984570555175253</v>
       </c>
       <c r="C21">
-        <v>0.6020190028389152</v>
+        <v>0.22751265375922</v>
       </c>
       <c r="D21">
-        <v>0.06369881262156696</v>
+        <v>0.02291250814445078</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7260652116827799</v>
+        <v>0.520288573071312</v>
       </c>
       <c r="G21">
-        <v>0.0007563644848624965</v>
+        <v>0.002370942901725299</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.158996134369943</v>
+        <v>1.388602802617868</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.870381139238333</v>
+        <v>1.598446276679965</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.253053360144918</v>
+        <v>1.053843118737063</v>
       </c>
       <c r="C22">
-        <v>0.6374959255373085</v>
+        <v>0.2403276014283904</v>
       </c>
       <c r="D22">
-        <v>0.06776026039866423</v>
+        <v>0.02433444535879659</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7791739449827304</v>
+        <v>0.5283721535040939</v>
       </c>
       <c r="G22">
-        <v>0.0007525640537395145</v>
+        <v>0.002368916769226141</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.682910396506387</v>
+        <v>1.483308399076364</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.000687561000575</v>
+        <v>1.612553657595384</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.137656229937875</v>
+        <v>1.01688730476792</v>
       </c>
       <c r="C23">
-        <v>0.618594222287328</v>
+        <v>0.2334933686619536</v>
       </c>
       <c r="D23">
-        <v>0.06559455182183171</v>
+        <v>0.02357607981613086</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7505737345963297</v>
+        <v>0.5240202933962763</v>
       </c>
       <c r="G23">
-        <v>0.0007545915367699484</v>
+        <v>0.002369991057158988</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.399342878805029</v>
+        <v>1.432694165157642</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.93032026851327</v>
+        <v>1.604900434438974</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.700401220503636</v>
+        <v>0.8765754216706227</v>
       </c>
       <c r="C24">
-        <v>0.546363174751832</v>
+        <v>0.2074948437367539</v>
       </c>
       <c r="D24">
-        <v>0.05735348211459979</v>
+        <v>0.02069206622371667</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6474882647367082</v>
+        <v>0.5083593487474616</v>
       </c>
       <c r="G24">
-        <v>0.0007623042535587846</v>
+        <v>0.002374216061407409</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.401824410672816</v>
+        <v>1.242451526725588</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.680649086990002</v>
+        <v>1.578625749118828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.228494057661351</v>
+        <v>0.724544712778993</v>
       </c>
       <c r="C25">
-        <v>0.4674673520537169</v>
+        <v>0.1792215712837049</v>
       </c>
       <c r="D25">
-        <v>0.04840108755566774</v>
+        <v>0.01755745605343151</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5454115706600362</v>
+        <v>0.4932025813634056</v>
       </c>
       <c r="G25">
-        <v>0.0007707737487642976</v>
+        <v>0.002379109849696222</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.437482965064177</v>
+        <v>1.040064438344004</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.440709949733957</v>
+        <v>1.5560109503337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6120544276223256</v>
+        <v>1.880631598628099</v>
       </c>
       <c r="C2">
-        <v>0.1582178864502168</v>
+        <v>0.4087663019577121</v>
       </c>
       <c r="D2">
-        <v>0.01523005430277635</v>
+        <v>0.04176472501432471</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4835143216245967</v>
+        <v>0.4763845998725387</v>
       </c>
       <c r="G2">
-        <v>0.002383005729340188</v>
+        <v>0.0007771989133679541</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8931652751493857</v>
+        <v>2.787380854150257</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.544213758709077</v>
+        <v>1.283879809273287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5354954224460187</v>
+        <v>1.644468186473034</v>
       </c>
       <c r="C3">
-        <v>0.1438735245382929</v>
+        <v>0.3686738855937506</v>
       </c>
       <c r="D3">
-        <v>0.01364120990714213</v>
+        <v>0.03724136572426318</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4778559183888476</v>
+        <v>0.4327210433158655</v>
       </c>
       <c r="G3">
-        <v>0.002385830164463341</v>
+        <v>0.0007816944150032534</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7947831649405543</v>
+        <v>2.371648856269218</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.539211341963835</v>
+        <v>1.187732036822666</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4883364759589881</v>
+        <v>1.499197659873005</v>
       </c>
       <c r="C4">
-        <v>0.1350140981047332</v>
+        <v>0.3439200297541731</v>
       </c>
       <c r="D4">
-        <v>0.01266017368185146</v>
+        <v>0.03445159750997107</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4748258946642494</v>
+        <v>0.4072448893934251</v>
       </c>
       <c r="G4">
-        <v>0.00238765575187945</v>
+        <v>0.0007845306117844647</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7349081208685533</v>
+        <v>2.125482490885631</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.537604654448927</v>
+        <v>1.133055519916155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4690823438641303</v>
+        <v>1.439923681327571</v>
       </c>
       <c r="C5">
-        <v>0.1313911699948562</v>
+        <v>0.3338002347804547</v>
       </c>
       <c r="D5">
-        <v>0.01225905561926055</v>
+        <v>0.0333116704356371</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4737024137879118</v>
+        <v>0.397170891999501</v>
       </c>
       <c r="G5">
-        <v>0.002388422744542693</v>
+        <v>0.000785706309254967</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7106360203322595</v>
+        <v>2.027060144770473</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.537316707355927</v>
+        <v>1.111783644965243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4658830538158156</v>
+        <v>1.430076503395185</v>
       </c>
       <c r="C6">
-        <v>0.1307888344805122</v>
+        <v>0.332117946292712</v>
       </c>
       <c r="D6">
-        <v>0.01219237064919554</v>
+        <v>0.03312220181377512</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.473522568877442</v>
+        <v>0.3955159332105183</v>
       </c>
       <c r="G6">
-        <v>0.002388551497554459</v>
+        <v>0.0007859027589788292</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7066131732506733</v>
+        <v>2.010821034495407</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.53729100189156</v>
+        <v>1.108310014119041</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4880769535794229</v>
+        <v>1.498398585307143</v>
       </c>
       <c r="C7">
-        <v>0.1349652886500508</v>
+        <v>0.3437836794226428</v>
       </c>
       <c r="D7">
-        <v>0.01265476942693056</v>
+        <v>0.0344362364518318</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4748102930174483</v>
+        <v>0.4071078167992539</v>
       </c>
       <c r="G7">
-        <v>0.002387666002497192</v>
+        <v>0.0007845463859136975</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7345802709710085</v>
+        <v>2.124147949905236</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.537599288008721</v>
+        <v>1.132764663275196</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5856892369392881</v>
+        <v>1.799252464730529</v>
       </c>
       <c r="C8">
-        <v>0.1532829743556761</v>
+        <v>0.3949722114113001</v>
       </c>
       <c r="D8">
-        <v>0.01468338142039727</v>
+        <v>0.04020767824214033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4814708339673217</v>
+        <v>0.461035359124736</v>
       </c>
       <c r="G8">
-        <v>0.002383960675176058</v>
+        <v>0.0007787337272559951</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8591288566878603</v>
+        <v>2.641891915941599</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.54218396431412</v>
+        <v>1.249768969093225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7758446251762621</v>
+        <v>2.387500532439844</v>
       </c>
       <c r="C9">
-        <v>0.1887751886500553</v>
+        <v>0.494150375492211</v>
       </c>
       <c r="D9">
-        <v>0.01861644025704834</v>
+        <v>0.05142408837918566</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4980781488172781</v>
+        <v>0.578740342172658</v>
       </c>
       <c r="G9">
-        <v>0.002377416132534079</v>
+        <v>0.000767894897333643</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.107889796336323</v>
+        <v>3.751024955410657</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.562870050734006</v>
+        <v>1.518125167259882</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9147147020558464</v>
+        <v>2.819102241587416</v>
       </c>
       <c r="C10">
-        <v>0.2145700613854444</v>
+        <v>0.5660609148586673</v>
       </c>
       <c r="D10">
-        <v>0.02147677101582701</v>
+        <v>0.05959596133110523</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5124724733267669</v>
+        <v>0.6746590679651945</v>
       </c>
       <c r="G10">
-        <v>0.002373042968827365</v>
+        <v>0.0007602023995841806</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.293851259506113</v>
+        <v>4.661637561049986</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.58530332332279</v>
+        <v>1.745813016600408</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9776951630773851</v>
+        <v>3.015372202399988</v>
       </c>
       <c r="C11">
-        <v>0.2262397142641532</v>
+        <v>0.5984874602134198</v>
       </c>
       <c r="D11">
-        <v>0.02277128312764631</v>
+        <v>0.06329528875233592</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5195038344906067</v>
+        <v>0.7209107584753696</v>
       </c>
       <c r="G11">
-        <v>0.002371146959983345</v>
+        <v>0.0007567417924536902</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.379243064672607</v>
+        <v>5.108733564093285</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.597102804373236</v>
+        <v>1.857819031085398</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.001515178961256</v>
+        <v>3.089680909147773</v>
       </c>
       <c r="C12">
-        <v>0.2306490380301227</v>
+        <v>0.6107149846812661</v>
       </c>
       <c r="D12">
-        <v>0.0232604862612078</v>
+        <v>0.06469300919127363</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5222364374263719</v>
+        <v>0.7388578326088862</v>
       </c>
       <c r="G12">
-        <v>0.002370442338494412</v>
+        <v>0.0007554348019138051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.411701292022158</v>
+        <v>5.284161434408858</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.601802019915738</v>
+        <v>1.901624813271383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.996386442808614</v>
+        <v>3.073678010047104</v>
       </c>
       <c r="C13">
-        <v>0.229699850499884</v>
+        <v>0.6080840813927466</v>
       </c>
       <c r="D13">
-        <v>0.02315517277432377</v>
+        <v>0.0643921357547157</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5216448025116449</v>
+        <v>0.734972370035635</v>
       </c>
       <c r="G13">
-        <v>0.00237059349832902</v>
+        <v>0.000755716170733014</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.404705273834793</v>
+        <v>5.246080538543268</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.600779658113822</v>
+        <v>1.892125360198918</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9796554472461025</v>
+        <v>3.021485971402569</v>
       </c>
       <c r="C14">
-        <v>0.2266026692857395</v>
+        <v>0.5994945375409486</v>
       </c>
       <c r="D14">
-        <v>0.02281155045417904</v>
+        <v>0.06341034683421043</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5197272421455921</v>
+        <v>0.7223782491477522</v>
       </c>
       <c r="G14">
-        <v>0.002371088723079779</v>
+        <v>0.0007566342099660082</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.381910929178645</v>
+        <v>5.123033834574073</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.597484772025126</v>
+        <v>1.861393928379641</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9694033618080766</v>
+        <v>2.989514675911664</v>
       </c>
       <c r="C15">
-        <v>0.2247042775674686</v>
+        <v>0.5942260772977193</v>
       </c>
       <c r="D15">
-        <v>0.02260094032845927</v>
+        <v>0.06280854448611706</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5185618086332937</v>
+        <v>0.7147221513057076</v>
       </c>
       <c r="G15">
-        <v>0.002371393799736665</v>
+        <v>0.0007571969156643086</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.367964878409282</v>
+        <v>5.04851040500543</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.59549669448586</v>
+        <v>1.842757124990555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9105947691350025</v>
+        <v>2.806273945973373</v>
       </c>
       <c r="C16">
-        <v>0.2138060855659774</v>
+        <v>0.5639351920609101</v>
       </c>
       <c r="D16">
-        <v>0.02139203387061883</v>
+        <v>0.05935379729594104</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5120227237712243</v>
+        <v>0.6716936723845635</v>
       </c>
       <c r="G16">
-        <v>0.002373168750356581</v>
+        <v>0.0007604291692908901</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.2882873866522</v>
+        <v>4.633189988939492</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.584564431732758</v>
+        <v>1.738677422462189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8744671712182139</v>
+        <v>2.693843273579375</v>
       </c>
       <c r="C17">
-        <v>0.2071035499609764</v>
+        <v>0.5452730993845023</v>
       </c>
       <c r="D17">
-        <v>0.02064867154293637</v>
+        <v>0.0572294787419878</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5081353355735416</v>
+        <v>0.6460046464392946</v>
       </c>
       <c r="G17">
-        <v>0.002374281488101579</v>
+        <v>0.0007624206265443253</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.239617298629568</v>
+        <v>4.387688899916014</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.578267451672502</v>
+        <v>1.677105218190121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8536695378502941</v>
+        <v>2.629170371651355</v>
       </c>
       <c r="C18">
-        <v>0.2032423775570464</v>
+        <v>0.5345130607858835</v>
       </c>
       <c r="D18">
-        <v>0.02022048417346411</v>
+        <v>0.056005966238871</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5059448755206688</v>
+        <v>0.6314715550558532</v>
       </c>
       <c r="G18">
-        <v>0.002374930297764657</v>
+        <v>0.0007635698573943666</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.211698102470493</v>
+        <v>4.249471841059744</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.574795571378644</v>
+        <v>1.642471650437585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.846624777189561</v>
+        <v>2.60727227331887</v>
       </c>
       <c r="C19">
-        <v>0.2019340249685797</v>
+        <v>0.5308656771343294</v>
       </c>
       <c r="D19">
-        <v>0.02007540122051665</v>
+        <v>0.05559143321190874</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5052110170570501</v>
+        <v>0.6265909981761126</v>
       </c>
       <c r="G19">
-        <v>0.002375151485796819</v>
+        <v>0.0007639596759174218</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.202257718487033</v>
+        <v>4.203151142169872</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.573645758380025</v>
+        <v>1.630874501483163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.878314890231195</v>
+        <v>2.705812315556784</v>
       </c>
       <c r="C20">
-        <v>0.207817675764403</v>
+        <v>0.5472624764524596</v>
       </c>
       <c r="D20">
-        <v>0.02072786872330568</v>
+        <v>0.05745579105150966</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5085444459828921</v>
+        <v>0.6487138066501501</v>
       </c>
       <c r="G20">
-        <v>0.002374162126027035</v>
+        <v>0.0007622082532190582</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.244790542441166</v>
+        <v>4.413504781757482</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.578922241513823</v>
+        <v>1.683577638056448</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.984570555175253</v>
+        <v>3.036816510387837</v>
       </c>
       <c r="C21">
-        <v>0.22751265375922</v>
+        <v>0.6020190028388299</v>
       </c>
       <c r="D21">
-        <v>0.02291250814445078</v>
+        <v>0.06369881262157406</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.520288573071312</v>
+        <v>0.7260652116827799</v>
       </c>
       <c r="G21">
-        <v>0.002370942901725299</v>
+        <v>0.0007563644848888527</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.388602802617868</v>
+        <v>5.158996134369985</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.598446276679965</v>
+        <v>1.87038113923839</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.053843118737063</v>
+        <v>3.253053360144804</v>
       </c>
       <c r="C22">
-        <v>0.2403276014283904</v>
+        <v>0.6374959255373085</v>
       </c>
       <c r="D22">
-        <v>0.02433444535879659</v>
+        <v>0.06776026039854344</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5283721535040939</v>
+        <v>0.779173944982702</v>
       </c>
       <c r="G22">
-        <v>0.002368916769226141</v>
+        <v>0.0007525640537396817</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.483308399076364</v>
+        <v>5.682910396506358</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.612553657595384</v>
+        <v>2.000687561000689</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.01688730476792</v>
+        <v>3.137656229937932</v>
       </c>
       <c r="C23">
-        <v>0.2334933686619536</v>
+        <v>0.6185942222873848</v>
       </c>
       <c r="D23">
-        <v>0.02357607981613086</v>
+        <v>0.06559455182171803</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5240202933962763</v>
+        <v>0.7505737345963297</v>
       </c>
       <c r="G23">
-        <v>0.002369991057158988</v>
+        <v>0.0007545915367709168</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.432694165157642</v>
+        <v>5.399342878804944</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.604900434438974</v>
+        <v>1.93032026851327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8765754216706227</v>
+        <v>2.70040122050375</v>
       </c>
       <c r="C24">
-        <v>0.2074948437367539</v>
+        <v>0.5463631747518605</v>
       </c>
       <c r="D24">
-        <v>0.02069206622371667</v>
+        <v>0.05735348211455005</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5083593487474616</v>
+        <v>0.6474882647367082</v>
       </c>
       <c r="G24">
-        <v>0.002374216061407409</v>
+        <v>0.0007623042535844513</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.242451526725588</v>
+        <v>4.401824410672816</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.578625749118828</v>
+        <v>1.680649086990002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.724544712778993</v>
+        <v>2.228494057661237</v>
       </c>
       <c r="C25">
-        <v>0.1792215712837049</v>
+        <v>0.4674673520537738</v>
       </c>
       <c r="D25">
-        <v>0.01755745605343151</v>
+        <v>0.04840108755549721</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4932025813634056</v>
+        <v>0.545411570660022</v>
       </c>
       <c r="G25">
-        <v>0.002379109849696222</v>
+        <v>0.0007707737487347982</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.040064438344004</v>
+        <v>3.437482965064177</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.5560109503337</v>
+        <v>1.440709949733957</v>
       </c>
     </row>
   </sheetData>
